--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/45_Kars_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/45_Kars_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38BE28C1-F152-42DB-AB30-FEEC3C1C0D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{096379AD-FE95-4C81-9860-0FC242B745CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4E7AD029-69AB-4E3F-B10F-1033224EADED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{49EB9C20-39CF-4EDA-A470-4DCF0D3D52DB}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{C1E8A5D7-F521-407A-8C5E-F3335229FD32}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{BA4C7B30-504A-4D55-890C-2AB3385333B0}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{36ACE1CD-0351-4440-901C-7815030C34ED}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{76D6FFB1-D62F-4CF2-9CB5-69089D49818F}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{F351D911-08E3-40DE-BEAC-4E6E458DB0D7}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{CB1E8E38-1F0C-4EBB-A3D2-71123883A5B3}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{0B401326-87EC-4B97-9401-27AD938B889F}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{4BF24220-06E2-4F5B-852D-1E9DFB133FB3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96D5038-3EDE-4B18-9949-9FF1F6DEEFB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496498D6-D09C-424A-9391-56622DD078A7}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2427,18 +2427,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{87488FA3-EBA4-4B9B-B662-673F50EE14DC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DF338E54-B892-46A4-9CEE-545BD541C8CF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{DC1FB061-EC91-44A5-93E7-E5A2E87943B9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8A0F8939-9B1B-4C48-9C62-BFE210EBA18C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A6169CBF-4022-4703-BA6B-5204824EC6F3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{1EFD9398-BAF6-40E6-85D9-151937275FE6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6AAD9AFE-8FCB-4072-898A-037364E300EF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CD3A9F22-D347-49AB-96E5-277F5FA494B3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9C9D04F8-4709-4A29-B525-60155DF8D890}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4E23F8E1-D7BD-4782-BF33-7691E2BE8017}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{21464C8B-85D4-46E2-B4CE-9C0F9429FE86}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8338BFB3-A746-46C1-9B2C-971CF5E96FBF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{15CBE792-99FE-4AD9-B9C4-500366754DD5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{193E878B-1EF8-436B-B8AC-21A3CF05A688}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D95A67A6-09AE-45EE-AF3F-24DCFF6C26C1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DDE0F8B4-1122-4CC5-9611-3D272B555CC9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0091395B-C113-4AEB-AC77-1D2DBC4483CE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{688E1E76-1026-441C-92E9-181581666038}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E2079342-B12F-4DC9-A082-CF275ED319D0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{477D470D-EC1A-465C-B88B-9ACDD9FED49F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1D9AA40C-1B1F-4B16-85CD-6595A4B20972}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F3ED86E6-F467-413C-A035-252126DFF9EC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8B740FE9-7942-4D0D-A7F9-065B33AE8910}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{33F62DAA-0907-4F12-8F71-5A59BD35BA35}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2451,7 +2451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A81FBC4-DEFC-416C-9F7F-268647F99175}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B279A0-D662-4903-81FC-5D6EEE224E97}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3634,18 +3634,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{191B580C-C4D2-4FD6-9124-ECB809CD177F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4E3C6B73-112F-4FA1-A130-D36067DD583D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{48BBFA23-6B7C-48E1-AA51-DF1738E7DE45}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{41466430-C777-4619-A87A-CDDCFA6915BA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F962FD16-1DE6-48D5-86B5-7B472F954E11}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{538EE68B-64EF-441A-BBC7-6CC3FEB041AD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{916A46A0-3E16-4510-876C-3D81FED8E681}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{85F7CD97-1CFE-4DFA-AAB4-0D8ED388A247}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C7885F28-4277-4089-AEA4-5191901E04BC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D2A86C2B-F9A5-40D2-9B81-2E1D8B2C1D81}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0C9FB9F1-C0B3-4233-95DB-7E8F1FE7AEEA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{73430EE1-FC59-4A04-92A8-B959C65C5641}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{12C3AE73-485A-45D7-B5CA-08EC90F4082E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{23ED6249-5766-497F-8325-EA24BB7FAFDC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A7FFEAAA-C37B-4BFA-B7A9-8A6A031BE4D4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{41F333D8-C983-4289-820B-EA27FF4BE1CC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D34E684E-F458-4485-A702-7289CEDD4A02}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{92284C3B-2E4E-420D-87DC-9C9A0AB02724}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{AE122768-0C1C-4E7D-898A-B629265CFBC6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{21652818-2B14-4443-B943-4907DBFD95AC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F8F8FE49-3102-4139-94D2-F2AF77B48DA0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{AF97586B-AD91-4DA8-88A5-21DDDBBEFB2E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7667564F-D63B-4126-99B7-9CF3622A0E19}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C1370CF0-5AC9-4F36-A78F-6AD809DA4353}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3658,7 +3658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2C799B-2D1A-4252-BEA3-A2731F556B9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2B8092-FF41-45D9-9616-55BBCF890FC2}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4841,18 +4841,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{516F4B77-EE06-49A2-88C8-0E31A54DBC29}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F370567D-255D-436E-85B9-3B644678A969}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{31EEA2DE-78B7-4F4D-84C4-D1831BA5F3F0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D638F794-05F3-4944-B1EE-5CB27288D994}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F533550D-3711-4301-9465-9E783BD51ABE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{727DD4ED-E950-4215-A598-6CFA987686BB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{AE3D73C6-BC90-4E77-8E14-423829F22FE4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8369C8F5-9F02-4113-956D-C1685B2336D8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{DA5F1CB7-FE82-4501-B98C-A656C7E00243}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{BEC62A85-6618-4A6C-8567-ED1654134A60}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{046D6384-EEC7-4FDB-B601-502AFFC66666}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3F7E4C47-5BB2-461F-8026-FA39C177FD11}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0706BCAB-1DED-4DE6-A7D5-1658A48B1350}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4D5757A1-8675-47B3-BDA7-EC4576C715A1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D4E818E9-2527-428B-9079-CBE8CCA19750}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8C944760-65F9-4F34-940F-8E0C5B9312A3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8ED9BA05-9AA0-4309-B435-0038C7413172}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D2F93C4F-5E76-406A-AEC5-C8575F228B64}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{EB98FC2E-6C38-4622-9C87-FB963D9CF908}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{78ECDA94-9729-4B1B-9784-EF12DC4171DF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F14BD4D0-D176-4555-B2BC-3484645B0138}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{71F54A02-F444-4BDF-9DBA-82D1A88BC74A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C9D49F15-2E52-407C-A93B-AFB6C2EB5A5F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6CA7E286-2847-49EF-A938-ACAA795B0AA1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4865,7 +4865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C1BE44-A19C-4A9B-870C-4CAA4D9F0077}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{579EFA09-F689-4963-87EA-A336699D163B}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6036,18 +6036,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A13B29BC-26A8-4255-911C-1F43A181ECCF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{78BB2F20-6C49-48DA-9A7D-2AA05891E4DC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{20CDBE31-2783-4E7A-8FB5-6FE49D8A8F59}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E2D33C61-727F-479D-A533-07AB52C7772F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9E35BBEE-0D8F-40CB-9080-925795C0F793}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CC00D548-ADDE-48BB-AB37-92B75255E432}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B1822E41-1705-4FEB-B04A-3AC804646F4F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FDC6BF21-B529-4BD2-AB78-1C60CE4409F5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{83F9AD37-5430-46FD-B2E0-7143177434A5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B61B535B-99B2-462C-BB01-AABC6A9F5554}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{DF0B4EF2-7EB7-440A-A195-FFEC7464A236}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{391DA187-0987-4FE7-A86D-C47E2D973EA9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D7ED132C-5107-46E5-9CE4-2E06B156C4AA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{493F1306-AAB8-4E65-A4EB-365DC979F786}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2ED18C96-FF4E-4F90-BD41-C6664F3FE255}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{41ECA11D-F211-4D6E-BB87-C3F497072648}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4DC8868D-0A29-4329-8FFE-17C83EBE9B82}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6B85E641-C669-4D84-802A-3D388F4167DB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{78698E6E-1894-4667-9E86-964D0AC07FF3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FA1A3704-45A6-4ECC-ADF6-DAA4B6541A6D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{41105F66-5A0B-4158-A0A5-8752CE89E703}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{06293C86-C174-4C7D-A976-888B95B3F322}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C9E9AFEA-E0B9-456C-A780-7AD5BBBF2CC7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3370EE85-CAF7-442D-B563-75BAD961847E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6060,7 +6060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D92C40D-2451-4AFD-82F7-037431F1054B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CE9D96-9606-40FF-A796-2284A668639F}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7257,18 +7257,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7E86E781-02CA-477E-9EEC-B9DE41D4137C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{190A0922-0EC0-4F8D-A898-7A0F7E43E60E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9275CFCF-F414-42B0-A488-4E83293EF8A4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B55F070E-6014-43B5-AF1F-5F2D858EA4A7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{96512B49-E1AB-4ECF-812F-CB56710B35B1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{04685DFE-7679-4028-B9DB-6953201FC178}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2D3C0E17-B682-42E0-A88A-847885B863F6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{4F807A68-417A-4865-AB59-EBE83A9357EE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3F543250-3CD2-4F1D-9118-66DF728CC1A6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{FEA1039D-4F5A-42F3-BAB2-510D348FC2F6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{59167918-5634-43A9-B686-FCA29E235418}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0D4A6A78-4AFD-4FC1-8850-668E30E28D50}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E631B8E0-BA32-4B26-ABB6-40E8014D9269}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{71A1BFBF-D7D7-4141-BC4D-78665DF7AC47}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{89EA86E5-3603-493F-B0AB-FFF4988479A9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C675327F-00E6-454D-A09D-49D7648510A5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{13A698EC-1A4B-4490-AB00-C1E80FC49AB7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6929A5AF-C0AC-47FF-91FE-B15C0AA2BAA8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{630F0107-8E0F-4B51-97BC-778A3AECDBBF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1DE7FCEC-1680-46D7-B083-F90FA42F7C26}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{89656ED6-21D4-41AA-8D9B-F0303895D20E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A0D87791-818F-439B-BBAB-32E919F55A45}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4EAFEA8A-15DE-4795-92EB-CDB90E4645C3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{091A434A-93A2-4488-8A8B-739838FFBBC7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7281,7 +7281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0AF94F-67E0-4897-89A6-EB4E62D8F206}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB258D6F-8B5F-4A2E-8415-071BD31C577C}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8474,18 +8474,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{18675A41-172B-4385-86D7-240A502513F2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4947E926-DFE0-4C6B-8F64-BC3F6609B549}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2374F443-E2E2-4625-B763-C970B83E9A71}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{2AC7F107-1E77-4D2F-8881-840A5BA193E4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{14D9E203-3420-46D9-BF84-407090784EEF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D5D40FA9-71DD-4A4D-8E09-14AB473DE73B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8E279DC3-C8C1-468A-8B8D-C517FD4CD3E3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1B4904D7-0CE4-4834-A75E-7C2662F3E29B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3B417E3C-DF54-4656-A0FE-70D27C95676C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{20CAB874-51F3-4458-A4F4-577FC852ADB5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F1EF4989-D535-4300-920D-D85C2467FAB3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CDECF526-FE28-424C-AC0A-B34F0D6D3F1B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A0DCD104-49AA-40F2-9E2C-E3FDE1A71A85}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{79337873-0625-4A5A-BC36-D046BABDA0FB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{8F41DEBA-5D5F-4754-89EC-16A0676AE1ED}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C678EE26-07E3-4B9E-A0FF-C012ACA48F66}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{BA182F4F-0E1A-4CE0-84A2-54EAF197BC01}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E8692E21-5176-4440-A5CE-71005962DA41}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8E56C850-8154-4F5F-A273-1EBD5DB8A3E1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{55CC6A37-DED3-49B6-B19F-26C8BA6A2913}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{07EE26A9-9818-4A17-B27A-C58ABE1CEFE6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5A2DB583-6190-4EBC-9F51-BBFB01829909}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{70340AC7-389F-4D2B-8B54-89510B58BD44}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{15081EAF-F7CC-4F99-B7D2-34CCFD930C61}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8498,7 +8498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44F8071-DFF4-445E-A09C-88FE81AD0D0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045A1C5B-2E17-4FD7-8F0B-F60FB813ED1D}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9687,18 +9687,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{62482FE3-132E-4894-91C9-0DF1591407F9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{AC255010-A726-4B1E-A3DB-80B862312C50}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E8987D5D-0304-4BAA-B12F-D460451A1BDF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{ED632F6C-747F-40B2-BEAE-F66C40C2AC25}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9EAD023A-91BF-4046-96DE-9AF484201934}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E4E5D148-7FD8-4D4C-BB30-716BFAE43356}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9D410761-0D1E-48BA-A344-455F3DF978FB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7525D846-0D77-440F-9C11-52B3C87DB626}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F65F166B-E088-47AC-8C86-32DA8566D8F6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{90878B56-65E7-4153-A938-143F132F8A7E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E633FA45-1208-40BA-A747-A037AFE62E42}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5276E88B-2318-4508-AFB4-3770D2C29A7D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{00E0569D-AB39-4D91-BC5F-733FF10B37E6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CCC655C2-8575-42A9-B443-6A9CFCA8B7C4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1672CE1B-71BE-497C-B7A1-2FE4DE1993D7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{72156795-D777-4462-B19E-30C752B61248}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C2AD775C-FADC-4172-A99E-AAAC2274C5F8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{21285884-E958-4920-98D7-06100722FB88}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6C533868-C270-456E-87F5-CBAE28B2411C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1FF4F463-0771-46D5-BA43-2B94A6BACFD3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{34768516-7664-456E-B3DC-B7DCE64BEFB6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C342C106-FB82-478B-8947-5F434C2C256F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{888CC4D1-F809-4EC8-9667-A050B8AA1526}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{05F2885E-A843-472F-A929-6DAF8F278663}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9711,7 +9711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A032DA-F04B-4E2D-AFD3-460D4ED25778}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F62196-3653-403A-9F51-114E8D561D15}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10898,18 +10898,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{99FE0927-CF9D-4D16-9A65-F3BC00DFDA8B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2B3ED3F7-5892-4445-BCA1-F3ADD28354AF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FB1ACF25-B221-47FA-BC9A-4502CC7B4A8C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BD563359-AFE4-4789-AEC8-6F23A05F46F5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E6597FFA-E12D-44E6-B33A-74575FF766D1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D977515E-80F4-428F-8B2D-1707FEA9D755}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{AC4CDA2C-7144-46E5-80F0-1FB0A87BA106}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{80D413A2-B6F1-498E-A30C-1C88CB0157C6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{EC423468-3453-4639-BF45-D0DEBDAD66CD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2FDE3480-FFBE-4C99-9610-04426B932511}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{09C893D5-DD4F-4D1B-9B73-D8A54EDAC69A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{79ACBFB8-0224-456D-BC25-8907397D0DA4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{32777A05-D780-4C51-B897-3277E98DCFCE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CBFC3FFF-FA8D-424E-B7A3-C26C6C19E4A7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B5096BFF-7CEF-4B9C-8342-0B51759BA142}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{70450168-0CE5-4E4F-9A0A-F9A210DA72A4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{872EE97F-09D2-4B82-8B02-782FA00DC5AE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{14A93605-C403-46F6-8973-DCED3F83C9A6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A83EE9A2-8626-4717-B07C-0229236AACB6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1193F2D1-B8DA-402C-A590-08670EE4C17F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{DB32707C-259C-49CB-9F6E-2661C39A1AEB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{258EA8EC-AF08-4D23-A65D-582AF496F23A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4175732C-6442-42EF-BDB5-45B37147712C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AB1F352D-7EC7-4D5E-B0FB-9F23C11B833E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10922,7 +10922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7914E9-4A6C-43DA-A516-7FA373A8BE12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01729278-9A00-4BB9-9AAF-4B7EC5635206}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12109,18 +12109,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{44F85910-880C-4FC5-A629-5B65B77569B3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F0F3F34C-694A-4B11-91BC-35B7C0B8C1DA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F2059732-BD5B-4B5D-A7AF-F903E28F3D1D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CDF0F839-B793-4B33-80B9-17B9327E2209}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{5A5864B2-7AD8-450D-8B0E-0BC2B27840C3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{13FA236A-200B-4C4F-859F-648C10D8E7E3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{BC7B0A17-ADAC-4D19-BEC1-36B7E54EBE1E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{58A930BA-328B-4C1D-94CC-63B1150F1F19}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4BB77671-B829-48DE-9505-9C06CC8DD1E3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4D377B37-B071-48F3-89C9-835EFD57B4EF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{53544B40-D2FF-4D72-B057-D2BE899A6B90}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9FC42CE9-25D8-47E1-8316-A1D50B15E6EB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E74A5361-E264-4BD1-8924-C95E4789A8D5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{58F6AEBF-CAA3-49A5-98F1-FFE67201F55A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{97A16DC8-883F-4E6B-8BA8-733EDEF79D11}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DB4B3570-C78F-4E02-9C90-E5E006234537}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7A8C533B-6EBA-4E6E-8D50-7405457F501B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{05DA23AB-0D2C-472F-93F1-D407DBA6D473}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3C506FF4-B62F-47D5-9FC4-7BF4AE84FAA1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7F9F36B3-E6B7-40B6-8D83-4ADD3FD08970}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2D452844-5241-4F15-A2F2-621AEF119445}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9675D659-4148-4AF6-8A7E-FC3E2A724B75}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3E722158-D538-4D6F-9A9A-86843B78B575}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{33D12E00-B9EB-41D8-891D-E1A18943CA75}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12133,7 +12133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39E05F2-92F5-4C5C-9BE3-B1D3B31F8D54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBAAF86-929C-48F1-B6C7-BD2865AFA14C}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13316,18 +13316,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{FDB7A0AC-6419-4926-AFDE-985BB4D01DA0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{09836146-6067-4C0E-AD83-6AAACBA10AF9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5B8C40C7-3779-4B98-BBF3-DE60242C954C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5DF60667-A700-4800-A307-4812B1B39622}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D0DEC342-4498-45BB-83E1-814B0D69D099}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{40EF45B7-B272-4510-B112-109D5D65A40F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{839EE60E-4DF2-4BEF-97FB-6D580F72FC2F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B1F76DBC-CFDF-4588-83FB-E242A5302D12}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{648FF1E2-8A3B-4D72-A8DD-36EF8853614E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{BA184773-E93A-461A-BA04-32E48F965185}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D26813C2-1CF0-4DDA-891F-09B6723FCBD3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AAA1B198-8084-43E8-9EFC-C4F3C175428A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9B8F7EB8-811E-45D6-B2A2-CBEBA24EF095}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{62B830FD-437A-490E-8ED2-3F57EB2AD8CD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{BA6D8638-EA30-4666-AAD0-F7BDBA2020A5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E4FD9A53-E63B-405B-BA9B-9D3509A8C449}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F3998107-CE21-496A-B6F4-C10B31A1BDF0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{83C1F6B5-853D-42A5-8865-E90781EB05D3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8391E1D8-D5FD-451A-8635-1A6F0C19AA2F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C479624B-6B94-4839-B180-72994939A1BE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{051AB0C2-2CFE-4777-9929-FC7182D1CFF1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{DF5BAA7F-5A37-4B8A-84C0-133E6D9F2701}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{321C95F7-A85C-4E68-80C4-BC2FEDC77808}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C6D19F78-1EE5-41C2-90DA-AE3F93025C90}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13340,7 +13340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FC9249-E813-4CD8-8F03-62BF0D86EC9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5955DCCE-6C43-44D0-AADD-C9AFB138F65E}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14523,18 +14523,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A4EB58DB-32AB-4FD1-8BFE-1F486FFAADC7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CDA3C357-A0C6-43E6-A3DE-5AF8F7394AFF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{29AF5542-9677-4F5C-BE5A-FF34A1D325F1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{18BF2A63-EFBC-464E-81E4-9F3758336688}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F1A982BF-6274-4898-A298-F43E4B7B5558}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9AC5D88F-DFF9-4D48-89DA-D3C6B5B1EF08}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{AC725857-47EC-4CE8-AAF0-3F790783FF2B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8A9981C0-F217-4844-ACB5-A55AE751DB5C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{381207A9-74EA-4D08-B9C2-73D620100776}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D85DBFEB-03A5-4251-A1ED-FD2B0F4B7741}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7587B404-51B4-45E6-AF51-C11DE9386036}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AF979198-5B55-487B-BB4C-7D4ADBB80AC2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{944C5090-8E81-4FC5-8B2E-B5D9580FF2AC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2F670473-8E12-4306-86D3-88B9602AB6A7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CC30E6CB-7384-4665-A66A-6C8A9162E97D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{333AFF8A-2D49-4B6A-A40E-A8AE043935CF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{31C6A36A-5BDB-48CB-98A1-B8F7712DB22B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F7CA01B6-CF82-4E7D-B50E-B55EBC669A0E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4101CFA4-0672-441F-9DCC-90D7F5187C2C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A0EC9091-4447-4188-AC4A-5516EB211CBE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B3EE1E57-A7E1-47BA-A0D4-D0CD1F3B7332}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{615B9C5F-5AFA-4348-B512-054DB7DD6158}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{93111DDD-D9BB-40E5-B905-482D4A4CEBE6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9554D4F4-F7A7-400B-9B57-E9351ED94840}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14547,7 +14547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64564AA3-1D1D-48DF-93B2-E1E7E792E714}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9899A8CF-3173-47C9-87C7-14D248B9C66E}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15730,18 +15730,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{EE36697A-298B-4A8F-ABB1-6CD6E6C9327E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B71626B6-E649-4449-AB13-748AE889D4EC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{51494178-B127-4E92-B720-32FF3D0C63EA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{410A837E-EE39-4708-977E-929A433535AC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{34E474F5-A22C-4AEC-BA9E-FD61762F16A2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F39BC925-8F53-4F5D-993A-E4C47071F457}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C0793780-AF62-479D-A43A-D58CBD780712}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CFA8F8AC-AE8D-4777-8F34-3509AFE4A171}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B0CEE58C-3DCC-48F6-B2B3-5AB4A8B26FD5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1D898517-750E-45E3-9092-7BB812D65EFD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FF014B0E-C10D-4386-AEC2-8470929A1A0B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{598A2D60-BA47-4549-A5EE-7C751DFD4BF7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{45DAD65E-DA6F-4372-B386-C71C921CC0C0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{EE853442-D3D4-42BB-8B7B-142905F81D73}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F855C418-1327-4B98-BFF1-665284D81753}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0B74E003-E9C5-4065-84F4-9FD865D64E17}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{13865B33-3B36-48D0-A893-7568FF4DD696}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{DD3C9AAD-9047-4350-8A94-2CBC0FA83212}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{316AD4E9-DFAB-4E18-BBA7-28C56A3EA111}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{028FD3B9-C7C3-4994-BFAC-A5AF0167621C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{979DF591-66DE-4969-B539-F109BDAC2885}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{EE8DCE19-7D2D-495E-A01F-71E51339D086}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E8A335C1-3A5C-4C3F-BBAF-6045753D49EC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F368C087-277F-47E3-AD5B-EFE9ACEAE05B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
